--- a/archivos/rellenados.xlsx
+++ b/archivos/rellenados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF7F964-1981-479B-A9B1-545595627585}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8DAB3-3E76-447E-A965-C4D3567F5F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -241,14 +241,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647205</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -264,13 +264,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="47625" y="0"/>
+          <a:ext cx="2743200" cy="804825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -584,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
